--- a/data/outputs/management/100.xlsx
+++ b/data/outputs/management/100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ55"/>
+  <dimension ref="A1:BR55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +930,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4453859</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1148,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1355,6 +1366,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4740335</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1560,6 +1576,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1777,6 +1794,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>5018138</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1990,6 +2012,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2207,6 +2230,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>4838014</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2420,6 +2448,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2637,6 +2666,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2854,6 +2884,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3075,6 +3106,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4414236</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3288,6 +3324,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4513611</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3505,6 +3546,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>4435448</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3722,6 +3768,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4274112</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3935,6 +3986,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4443263</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4152,6 +4208,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4373,6 +4430,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4590,6 +4648,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>4059657</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4799,6 +4862,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>3899319</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5020,6 +5088,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5237,6 +5306,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>4010719</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5442,6 +5516,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>3796483</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5659,6 +5738,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>4256143</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5876,6 +5960,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>3905396</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6089,6 +6178,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4271281</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6298,6 +6392,11 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>4077432</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6511,6 +6610,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>3769058</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6716,6 +6820,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6933,6 +7038,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>3936303</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7150,6 +7260,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7367,6 +7478,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>22899758</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7580,6 +7696,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>3771330</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7789,6 +7910,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>3082715</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8002,6 +8128,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>3436239</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8195,6 +8326,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8412,6 +8544,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>4879849</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8617,6 +8754,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8838,6 +8976,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>3761521</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9043,6 +9186,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>3762049</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9256,6 +9404,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>2988060</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9469,6 +9622,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9682,6 +9836,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9903,6 +10058,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>2870853</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10124,6 +10284,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>3762043</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10341,6 +10506,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>2995726</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10562,6 +10732,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10775,6 +10946,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10988,6 +11160,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>2814878</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11209,6 +11386,11 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>4297240</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11418,6 +11600,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11643,6 +11826,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11840,6 +12024,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12065,6 +12250,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>2826625</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12278,6 +12468,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>2727812</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
